--- a/Sprint-5/Product Backlog-Burndown.xlsx
+++ b/Sprint-5/Product Backlog-Burndown.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao6\Sprint-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Sistemas de Informação\Faculdade\4ºPeríodo\PDS\PROJETO\adocao\Sprint-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,11 @@
     <sheet name="Lista de tarefas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -274,12 +269,6 @@
     <t>O usuário tem a opção de fechar o software. Ao fechar o software, se deve ter garantia que nenhum dado seja perdido</t>
   </si>
   <si>
-    <t>Após o cadastro do animal, deverá ser fornecido a opção para mudar os dados cadastrados de cada animal.</t>
-  </si>
-  <si>
-    <t>É necessario ter um controle dos candidatos para adoção, então se deve criar uma tela de visualização dos candidatos</t>
-  </si>
-  <si>
     <t>É necessario ter um controle dos processos de adoção, então se deve criar uma tela de visualização do processo de adoção com o candidato e animal a ser adotado</t>
   </si>
   <si>
@@ -289,12 +278,6 @@
     <t>Médio</t>
   </si>
   <si>
-    <t>Melhorar as telas de cadastro, visualização, edição de dados</t>
-  </si>
-  <si>
-    <t>As telas devem ser InternalFrames, para que todo o espaço da tela seja aproveitado</t>
-  </si>
-  <si>
     <t>Se precisa de alguma forma de armazenamento persistente de dados</t>
   </si>
   <si>
@@ -304,12 +287,6 @@
     <t>Ao clicar em fechar, será apresentado uma caixa de confirmação da ação, perguntando se deseja realmente sair.</t>
   </si>
   <si>
-    <t>Será mostrado a lista de animais, e ao clicar no animal em que se deseja fazer a alteração, a tela de edição será mostrada.</t>
-  </si>
-  <si>
-    <t>Haverá uma lista com todos os usuários que conseguiram ou não realizar a adoção.</t>
-  </si>
-  <si>
     <t>Nessa tela de visualização, deverá ser exibido o animal a ser adotado e os dados do candidato, bem como sua motivação para adoção.</t>
   </si>
   <si>
@@ -355,12 +332,57 @@
     <t>Criar classe sessao</t>
   </si>
   <si>
-    <t>Todos as classes devem ser analisadas e mudadas, caso haja necessidade</t>
+    <t>Melhorar as telas de cadastro, visualização e edição de dados</t>
+  </si>
+  <si>
+    <t>O sistema deverá abrir apenas uma Janela Principal, e os cadastros e visualizações serão definidas como JInternalFrame para que todo o espaço seja aproveitado.</t>
+  </si>
+  <si>
+    <t>Estudar e Implementar a Biblioteca JInternalFrame</t>
+  </si>
+  <si>
+    <t>Atualizar Telas para JInternalFrame</t>
+  </si>
+  <si>
+    <t>Desejo que o Sistema forneça uma opção para alteração dos dados de animais cadastrados</t>
+  </si>
+  <si>
+    <t>O Sistema vai possuir uma opção de alteração na TelaPrincipal, com acesso a alteração dos dados dos animais</t>
+  </si>
+  <si>
+    <t>Tratar o Evento de Alteração de Dados</t>
+  </si>
+  <si>
+    <t>Busca e Visualização de Dados</t>
+  </si>
+  <si>
+    <t>Salvar Alterações no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Desejo que todos os candidatos que foram cadastrados possam ser visualizados em uma Lista</t>
+  </si>
+  <si>
+    <t>Atualizar Eventos de Chamada das telas</t>
+  </si>
+  <si>
+    <t>Desejo que todos os candidatos cadastrados no sistema, sejam visualizados em um lista.</t>
+  </si>
+  <si>
+    <t>Criar Classe ListaCandidatos</t>
+  </si>
+  <si>
+    <t>Integrar Classe ListaCandidatos ao Menu Principal</t>
+  </si>
+  <si>
+    <t>Criar visualização da Lista de Candidatos</t>
   </si>
   <si>
     <t>É preciso fazer uma melhoria no código, com o objetivo de o tornar mais rápido, legível e seguro</t>
   </si>
   <si>
+    <t>Todas as classes devem ser analisadas e alteradas, caso haja necessidade</t>
+  </si>
+  <si>
     <t>Refatorar as classes de view</t>
   </si>
   <si>
@@ -371,6 +393,18 @@
   </si>
   <si>
     <t>Refatorações de segurança</t>
+  </si>
+  <si>
+    <t>O Candidato pode acessar seu cadastro e se for necessário alterar dados incorretos.</t>
+  </si>
+  <si>
+    <t>O Sistema vai fornecer a opção de alteração de dados do candidato no menu principal, para correção de dados.</t>
+  </si>
+  <si>
+    <t>Tratar o Evento de Alteração de Dados do candidato</t>
+  </si>
+  <si>
+    <t>Busca e Visualização de Dados do Candidato</t>
   </si>
 </sst>
 </file>
@@ -726,6 +760,15 @@
     <xf numFmtId="4" fontId="13" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,12 +778,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -756,12 +793,18 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,17 +817,8 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,7 +1054,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 0</c15:sqref>
@@ -1182,7 +1216,7 @@
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>label 1</c15:sqref>
@@ -1272,11 +1306,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1809067872"/>
-        <c:axId val="1809077120"/>
+        <c:axId val="-2012087040"/>
+        <c:axId val="-2012085952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1809067872"/>
+        <c:axId val="-2012087040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1345,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809077120"/>
+        <c:crossAx val="-2012085952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1319,7 +1353,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809077120"/>
+        <c:axId val="-2012085952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1365,7 +1399,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809067872"/>
+        <c:crossAx val="-2012087040"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1378,7 +1412,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1703,17 +1736,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.42578125"/>
     <col min="2" max="2" width="53.140625"/>
-    <col min="3" max="3" width="49.28515625"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.85546875"/>
     <col min="5" max="5" width="14.140625"/>
     <col min="6" max="6" width="8.85546875"/>
@@ -1721,14 +1754,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1833,10 +1866,10 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -1866,8 +1899,8 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="21" t="s">
         <v>55</v>
       </c>
@@ -1895,8 +1928,8 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="22" t="s">
         <v>56</v>
       </c>
@@ -1924,10 +1957,10 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1957,8 +1990,8 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
@@ -1986,8 +2019,8 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
@@ -2015,8 +2048,8 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
@@ -2044,8 +2077,8 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
@@ -2073,8 +2106,8 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
@@ -2102,8 +2135,8 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="6" t="s">
         <v>43</v>
       </c>
@@ -2131,8 +2164,8 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
@@ -2163,7 +2196,7 @@
       <c r="A16" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2194,7 +2227,7 @@
     </row>
     <row r="17" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3" t="s">
         <v>59</v>
       </c>
@@ -2223,7 +2256,7 @@
     </row>
     <row r="18" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
-      <c r="B18" s="31"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="6" t="s">
         <v>60</v>
       </c>
@@ -2252,7 +2285,7 @@
     </row>
     <row r="19" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
-      <c r="B19" s="31"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="6" t="s">
         <v>61</v>
       </c>
@@ -2281,7 +2314,7 @@
     </row>
     <row r="20" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
-      <c r="B20" s="31"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="6" t="s">
         <v>62</v>
       </c>
@@ -2310,7 +2343,7 @@
     </row>
     <row r="21" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
-      <c r="B21" s="31"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="6" t="s">
         <v>63</v>
       </c>
@@ -2339,7 +2372,7 @@
     </row>
     <row r="22" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
-      <c r="B22" s="31"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="6" t="s">
         <v>64</v>
       </c>
@@ -2368,7 +2401,7 @@
     </row>
     <row r="23" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
-      <c r="B23" s="31"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="6" t="s">
         <v>65</v>
       </c>
@@ -2397,7 +2430,7 @@
     </row>
     <row r="24" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
-      <c r="B24" s="37"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
@@ -2425,10 +2458,10 @@
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="27" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="23" t="s">
@@ -2458,8 +2491,8 @@
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="23" t="s">
         <v>76</v>
       </c>
@@ -2487,8 +2520,8 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="23" t="s">
         <v>77</v>
       </c>
@@ -2516,10 +2549,10 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="27" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -2549,8 +2582,8 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="6" t="s">
         <v>70</v>
       </c>
@@ -2578,8 +2611,8 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2607,8 +2640,8 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="24" t="s">
         <v>73</v>
       </c>
@@ -2636,8 +2669,8 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="24" t="s">
         <v>72</v>
       </c>
@@ -2664,15 +2697,15 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>102</v>
+    <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D33" s="5">
         <v>0.5</v>
@@ -2697,11 +2730,11 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
@@ -2726,11 +2759,11 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
+    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D35" s="5">
         <v>2</v>
@@ -2755,15 +2788,15 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>85</v>
+      <c r="B36" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
@@ -2775,11 +2808,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
@@ -2791,11 +2824,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -2803,13 +2836,15 @@
       <c r="E38" s="5">
         <v>0.5</v>
       </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
+      <c r="F38" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D39" s="5">
         <v>1.5</v>
@@ -2821,15 +2856,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>91</v>
+      <c r="B40" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D40" s="5">
         <v>3</v>
@@ -2841,11 +2876,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+    <row r="41" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D41" s="5">
         <v>0.5</v>
@@ -2857,11 +2892,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
+    <row r="42" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D42" s="5">
         <v>4</v>
@@ -2873,127 +2908,217 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="F43" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F44" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="F45" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="F48" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="F49" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F51" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="F52" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3.48</v>
+      </c>
+      <c r="F53" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3</v>
+      </c>
+      <c r="E54" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="F54" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:19" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:19" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="25"/>
-    </row>
-    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>88</v>
@@ -3003,73 +3128,45 @@
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="5">
-        <v>2</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="F56" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="5">
-        <v>2</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="F57" s="6">
-        <v>5</v>
-      </c>
+    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="5">
-        <v>2</v>
-      </c>
-      <c r="E58" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F58" s="6">
-        <v>5</v>
-      </c>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="5">
-        <v>2</v>
-      </c>
-      <c r="E59" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="F59" s="6">
-        <v>5</v>
-      </c>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
@@ -3103,45 +3200,83 @@
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F65" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F66" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="6"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F67" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="F68" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
@@ -3175,23 +3310,23 @@
       <c r="E72" s="5"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="25"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
@@ -3226,144 +3361,28 @@
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
+  <mergeCells count="27">
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="A1:F1"/>
@@ -3371,6 +3390,26 @@
     <mergeCell ref="B8:B15"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -3384,7 +3423,7 @@
   </sheetPr>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -3406,20 +3445,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="1"/>
@@ -3434,40 +3473,40 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="39" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="1"/>
@@ -3482,18 +3521,18 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -3615,31 +3654,31 @@
       </c>
       <c r="F6" s="15">
         <f t="shared" si="1"/>
-        <v>406.81670000000003</v>
+        <v>396.03670000000005</v>
       </c>
       <c r="G6" s="15">
         <f t="shared" si="1"/>
-        <v>398.89670000000001</v>
+        <v>380.16670000000005</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="1"/>
-        <v>398.89670000000001</v>
+        <v>380.16670000000005</v>
       </c>
       <c r="I6" s="15">
         <f t="shared" si="1"/>
-        <v>398.89670000000001</v>
+        <v>380.16670000000005</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="1"/>
-        <v>398.89670000000001</v>
+        <v>380.16670000000005</v>
       </c>
       <c r="K6" s="15">
         <f t="shared" si="1"/>
-        <v>398.89670000000001</v>
+        <v>380.16670000000005</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="1"/>
-        <v>398.89670000000001</v>
+        <v>380.16670000000005</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -3681,22 +3720,22 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3715,10 +3754,10 @@
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
+      <c r="A9" s="41">
         <v>50</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="15">
         <f>SUMIF('Product Backlog'!F:F,1,'Product Backlog'!E:E)</f>
         <v>35</v>
@@ -3733,11 +3772,11 @@
       </c>
       <c r="F9" s="15">
         <f>SUMIF('Product Backlog'!F:F,4,'Product Backlog'!E:E)</f>
-        <v>11.16</v>
+        <v>21.940000000000005</v>
       </c>
       <c r="G9" s="15">
         <f>SUMIF('Product Backlog'!F:F,5,'Product Backlog'!E:E)</f>
-        <v>7.92</v>
+        <v>15.870000000000001</v>
       </c>
       <c r="H9" s="15">
         <f>SUMIF('Product Backlog'!F:F,6,'Product Backlog'!E:E)</f>
@@ -3761,11 +3800,11 @@
       </c>
       <c r="M9" s="15">
         <f>SUM(C9:L9)</f>
-        <v>101.1033</v>
+        <v>119.83330000000001</v>
       </c>
       <c r="N9" s="15">
         <f>M9/10</f>
-        <v>10.110330000000001</v>
+        <v>11.98333</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3780,9 +3819,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A2:A3"/>
@@ -3797,6 +3833,9 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:N91">
     <cfRule type="expression" dxfId="2" priority="2">
